--- a/eda/treebank/test/column-1-analyze.xlsx
+++ b/eda/treebank/test/column-1-analyze.xlsx
@@ -40,7 +40,7 @@
     <t>CH</t>
   </si>
   <si>
-    <t>,, ., ", :, ..., -, RBKT, LBKT, ?, !</t>
+    <t>,, ., ", :, ..., -, LBKT, RBKT, ?, !</t>
   </si>
   <si>
     <t>E</t>
@@ -52,13 +52,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>tennis, heroin, photo, logo, nilông, diesel, Para Games, bar, micro, ximăng</t>
+    <t>tennis, heroin, photo, bar, nilông, logo, diesel, Para Games, micro, ximăng</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ơi, à, Ấy, Ô, Ôi, Ủa, nhé</t>
+    <t>ơi, à, nhé, Ôi, Ô, Ấy, Ủa</t>
   </si>
   <si>
     <t>L</t>
@@ -70,7 +70,7 @@
     <t>M</t>
   </si>
   <si>
-    <t>một, hai, mỗi, ba, 1, Một, 2, 10, Hai, triệu</t>
+    <t>một, hai, mỗi, ba, 1, Một, 2, Hai, 10, triệu</t>
   </si>
   <si>
     <t>N</t>
@@ -94,13 +94,13 @@
     <t>Nu</t>
   </si>
   <si>
-    <t>đồng, m, km, g, tuổi, giờ, USD, kg, m2, m3</t>
+    <t>đồng, m, g, tuổi, km, USD, giờ, kg, m2, m3</t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>VN, HIV, CPC, NTLS, DN, ĐT, SV, SVHS, HS, L</t>
+    <t>VN, HIV, CPC, NTLS, DN, ĐT, SVHS, SV, L, HS</t>
   </si>
   <si>
     <t>P</t>
@@ -112,13 +112,13 @@
     <t>R</t>
   </si>
   <si>
-    <t>đã, không, lại, cũng, được, chỉ, đang, sẽ, ra, rất</t>
+    <t>đã, không, lại, cũng, được, chỉ, đang, ra, sẽ, rất</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>chính, ngay, cả, rồi, gì, thật, mà, Thế, đến, nữa</t>
+    <t>chính, ngay, cả, rồi, gì, thật, mà, Thế, đến, vậy</t>
   </si>
   <si>
     <t>V</t>
@@ -130,13 +130,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>như vậy, làm sao, nhất là, như thế nào, ngày một, ngày càng, có lẽ, ra sao, ít nhất, Có lẽ</t>
+    <t>như vậy, làm sao, như thế nào, nhất là, ngày càng, có lẽ, ít nhất, ngày một, ra sao, có vẻ</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>phó, trưởng, nguyên, phản, siêu, đại, tổng</t>
+    <t>phó, trưởng, nguyên, tổng, đại, siêu, phản</t>
   </si>
 </sst>
 </file>
